--- a/downloaded_file.xlsx
+++ b/downloaded_file.xlsx
@@ -51,7 +51,7 @@
     <t>11а</t>
   </si>
   <si>
-    <t>понедел.</t>
+    <t>Понедельник:</t>
   </si>
   <si>
     <t>1.</t>
@@ -156,7 +156,7 @@
     <t xml:space="preserve">Разг. о важн.</t>
   </si>
   <si>
-    <t>вторник.</t>
+    <t>Вторник:</t>
   </si>
   <si>
     <t>Лит.чтен.</t>
@@ -183,7 +183,7 @@
     <t>ОДНКНР</t>
   </si>
   <si>
-    <t>среда.</t>
+    <t>Среда:</t>
   </si>
   <si>
     <t>Физика</t>
@@ -207,7 +207,7 @@
     <t>Инф.эл.</t>
   </si>
   <si>
-    <t>четверг.</t>
+    <t>Четверг:</t>
   </si>
   <si>
     <t xml:space="preserve">Род.яз. </t>
@@ -228,7 +228,7 @@
     <t>Бил.в.будущ.</t>
   </si>
   <si>
-    <t>пятница.</t>
+    <t>Пятница:</t>
   </si>
   <si>
     <t>Литература</t>
@@ -240,7 +240,7 @@
     <t>Информ.</t>
   </si>
   <si>
-    <t>суббота.</t>
+    <t>Суббота:</t>
   </si>
   <si>
     <t>Литер.чт</t>
@@ -320,7 +320,7 @@
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf fontId="1" fillId="2" borderId="0" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -340,6 +340,9 @@
     </xf>
     <xf fontId="5" fillId="0" borderId="0" numFmtId="49" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf fontId="4" fillId="0" borderId="0" numFmtId="49" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -853,6 +856,9 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.5" defaultRowHeight="12.75"/>
+  <cols>
+    <col customWidth="1" min="12" max="12" width="20.28125"/>
+  </cols>
   <sheetData>
     <row r="1" ht="14.25">
       <c r="A1" s="1" t="s">
@@ -1447,7 +1453,7 @@
         <v>13</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="C19" s="5" t="s">
         <v>29</v>
@@ -2189,7 +2195,7 @@
       <c r="L41" s="5"/>
     </row>
     <row r="42" ht="12.75">
-      <c r="A42" s="1" t="s">
+      <c r="A42" s="9" t="s">
         <v>75</v>
       </c>
       <c r="B42" s="5"/>

--- a/downloaded_file.xlsx
+++ b/downloaded_file.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nikolai\Desktop\telebot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5507A50-87D7-4C78-9FC7-C2E46134B3BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EEB7758-8A9B-4381-8376-311BFA82B5B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="437" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="457" uniqueCount="128">
   <si>
     <t>Понедельник:</t>
   </si>
@@ -53,9 +53,6 @@
     <t>Ин.яз</t>
   </si>
   <si>
-    <t>Фин.гра.</t>
-  </si>
-  <si>
     <t>3.</t>
   </si>
   <si>
@@ -98,9 +95,6 @@
     <t>Лит.на.р.ч.я</t>
   </si>
   <si>
-    <t>Эл.курс.химия.</t>
-  </si>
-  <si>
     <t>Клас.час</t>
   </si>
   <si>
@@ -200,15 +194,6 @@
     <t xml:space="preserve">Рус.яз </t>
   </si>
   <si>
-    <t>Разг.о.важн</t>
-  </si>
-  <si>
-    <t>Разг.о.важнн</t>
-  </si>
-  <si>
-    <t>Вероят.ист.</t>
-  </si>
-  <si>
     <t>Внеурочк</t>
   </si>
   <si>
@@ -227,13 +212,199 @@
     <t>Вероят.и.стат</t>
   </si>
   <si>
-    <t>Разг.о.важ</t>
-  </si>
-  <si>
     <t>Дар.слова</t>
   </si>
   <si>
     <t>Лит.на.р.ч.</t>
+  </si>
+  <si>
+    <t>Алгебра(2)</t>
+  </si>
+  <si>
+    <t>Род.яз(4)</t>
+  </si>
+  <si>
+    <t>Общество(3)</t>
+  </si>
+  <si>
+    <t>Ин.яз(5)</t>
+  </si>
+  <si>
+    <t>История(3)</t>
+  </si>
+  <si>
+    <t>Геометрия(2)</t>
+  </si>
+  <si>
+    <t>Разг.о.важнн(1)</t>
+  </si>
+  <si>
+    <t>Флегентова В.Н.</t>
+  </si>
+  <si>
+    <t>Никитина О.Л.</t>
+  </si>
+  <si>
+    <t>Алексеев</t>
+  </si>
+  <si>
+    <t>Сергеев</t>
+  </si>
+  <si>
+    <t>Андреев</t>
+  </si>
+  <si>
+    <t>Прокопьев</t>
+  </si>
+  <si>
+    <t>Рогов</t>
+  </si>
+  <si>
+    <t>Рус.яз(1)</t>
+  </si>
+  <si>
+    <t>Литерат(1)</t>
+  </si>
+  <si>
+    <t>Владимиров В.Н</t>
+  </si>
+  <si>
+    <t>Физра(11)</t>
+  </si>
+  <si>
+    <t>Разг.о.важнн(2)</t>
+  </si>
+  <si>
+    <t>Разг.о.важнн(3)</t>
+  </si>
+  <si>
+    <t>Разг.о.важн(4)</t>
+  </si>
+  <si>
+    <t>Разг.о.важнн(5)</t>
+  </si>
+  <si>
+    <t>Разг.о.важн(6)</t>
+  </si>
+  <si>
+    <t>Разг.о.важн(7)</t>
+  </si>
+  <si>
+    <t>Афиногеновна1 П. П</t>
+  </si>
+  <si>
+    <t>Афиногеновна2 П. П</t>
+  </si>
+  <si>
+    <t>Афиногеновна3 П. П</t>
+  </si>
+  <si>
+    <t>Афиногеновна4 П. П</t>
+  </si>
+  <si>
+    <t>Литер.чт(12)</t>
+  </si>
+  <si>
+    <t>Рус.яз(12)</t>
+  </si>
+  <si>
+    <t>Окр.мир(12)</t>
+  </si>
+  <si>
+    <t>ИЗО(12)</t>
+  </si>
+  <si>
+    <t>Разг.о.важ(12)</t>
+  </si>
+  <si>
+    <t>Окр.мир(13)</t>
+  </si>
+  <si>
+    <t>Рус.яз(13)</t>
+  </si>
+  <si>
+    <t>Род.яз(13)</t>
+  </si>
+  <si>
+    <t>Литер.чт(13)</t>
+  </si>
+  <si>
+    <t>Разг.о.важ(13)</t>
+  </si>
+  <si>
+    <t>Литер.чт(14)</t>
+  </si>
+  <si>
+    <t>Матем(14)</t>
+  </si>
+  <si>
+    <t>Рус.яз(14)</t>
+  </si>
+  <si>
+    <t>Технология(14)</t>
+  </si>
+  <si>
+    <t>Разг.о.важ(14)</t>
+  </si>
+  <si>
+    <t>Окр.мир(15)</t>
+  </si>
+  <si>
+    <t>Физра(15)</t>
+  </si>
+  <si>
+    <t>Род.яз(15)</t>
+  </si>
+  <si>
+    <t>Рус.яз(15)</t>
+  </si>
+  <si>
+    <t>Разг.о.важ(15)</t>
+  </si>
+  <si>
+    <t>Николаева О. Н.</t>
+  </si>
+  <si>
+    <t>География(16)</t>
+  </si>
+  <si>
+    <t>Музыка(16)</t>
+  </si>
+  <si>
+    <t>Род.лит(4)</t>
+  </si>
+  <si>
+    <t>Сироткина М. Е.</t>
+  </si>
+  <si>
+    <t>Матем(17)</t>
+  </si>
+  <si>
+    <t>Евдокимова П. П</t>
+  </si>
+  <si>
+    <t>Рус.яз(18)</t>
+  </si>
+  <si>
+    <t>Литерат(18)</t>
+  </si>
+  <si>
+    <t>Алгебра(17)</t>
+  </si>
+  <si>
+    <t>Вероят.ист.(17)</t>
+  </si>
+  <si>
+    <t>Белова И. Н</t>
+  </si>
+  <si>
+    <t>Общество(19)</t>
+  </si>
+  <si>
+    <t>Фин.гра.(19)</t>
+  </si>
+  <si>
+    <t>Русский яз</t>
   </si>
 </sst>
 </file>
@@ -538,8 +709,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23:B26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.44140625" defaultRowHeight="13.2"/>
@@ -559,7 +730,7 @@
   <sheetData>
     <row r="1" spans="1:15" ht="14.4">
       <c r="A1" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B1" s="2">
         <v>1</v>
@@ -595,7 +766,7 @@
         <v>11</v>
       </c>
       <c r="N1" s="10" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="O1" s="10"/>
     </row>
@@ -615,10 +786,10 @@
       <c r="K2" s="6"/>
       <c r="L2" s="6"/>
       <c r="N2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="O2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:15" ht="14.4">
@@ -626,43 +797,43 @@
         <v>1</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>41</v>
+        <v>93</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>2</v>
+        <v>98</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>45</v>
+        <v>103</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>2</v>
+        <v>108</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>3</v>
+        <v>69</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>4</v>
+        <v>114</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>5</v>
+        <v>122</v>
       </c>
       <c r="I3" s="6" t="s">
-        <v>7</v>
+        <v>120</v>
       </c>
       <c r="J3" s="6" t="s">
-        <v>43</v>
+        <v>125</v>
       </c>
       <c r="K3" s="6" t="s">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="L3" s="6" t="s">
-        <v>5</v>
+        <v>65</v>
       </c>
       <c r="N3">
         <v>1</v>
       </c>
       <c r="O3" s="6" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="4" spans="1:15" ht="14.4">
@@ -670,240 +841,252 @@
         <v>6</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>7</v>
+        <v>94</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>7</v>
+        <v>99</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>47</v>
+        <v>104</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>8</v>
+        <v>109</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>9</v>
+        <v>68</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>47</v>
+        <v>118</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>4</v>
+        <v>114</v>
       </c>
       <c r="I4" s="6" t="s">
-        <v>50</v>
+        <v>121</v>
       </c>
       <c r="J4" s="6" t="s">
-        <v>10</v>
+        <v>126</v>
       </c>
       <c r="K4" s="6" t="s">
-        <v>5</v>
+        <v>65</v>
       </c>
       <c r="L4" s="6" t="s">
-        <v>12</v>
+        <v>66</v>
       </c>
       <c r="N4">
         <v>2</v>
       </c>
       <c r="O4" s="6" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="5" spans="1:15" ht="14.4">
       <c r="A5" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>2</v>
+        <v>95</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>12</v>
+        <v>100</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>7</v>
+        <v>105</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>12</v>
+        <v>110</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>4</v>
+        <v>114</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>12</v>
+        <v>66</v>
       </c>
       <c r="H5" s="6" t="s">
-        <v>50</v>
+        <v>121</v>
       </c>
       <c r="I5" s="6" t="s">
-        <v>13</v>
+        <v>70</v>
       </c>
       <c r="J5" s="6" t="s">
-        <v>61</v>
+        <v>123</v>
       </c>
       <c r="K5" s="6" t="s">
-        <v>9</v>
+        <v>68</v>
       </c>
       <c r="L5" s="6" t="s">
-        <v>43</v>
+        <v>67</v>
       </c>
       <c r="N5">
         <v>3</v>
       </c>
       <c r="O5" s="6" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="6" spans="1:15" ht="14.4">
       <c r="A6" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>15</v>
+        <v>96</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>41</v>
+        <v>101</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>31</v>
+        <v>106</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>7</v>
+        <v>111</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>16</v>
+        <v>115</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>7</v>
+        <v>120</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>12</v>
+        <v>66</v>
       </c>
       <c r="I6" s="6" t="s">
-        <v>5</v>
+        <v>65</v>
       </c>
       <c r="J6" s="6" t="s">
-        <v>5</v>
+        <v>122</v>
       </c>
       <c r="K6" s="6" t="s">
-        <v>8</v>
+        <v>82</v>
       </c>
       <c r="L6" s="6" t="s">
-        <v>9</v>
+        <v>68</v>
       </c>
       <c r="N6">
         <v>4</v>
       </c>
+      <c r="O6" s="6" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="7" spans="1:15" ht="14.4">
       <c r="A7" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B7" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="I7" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="J7" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="C7" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="F7" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="G7" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="H7" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="I7" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="J7" s="6" t="s">
-        <v>9</v>
-      </c>
       <c r="K7" s="6" t="s">
-        <v>13</v>
+        <v>70</v>
       </c>
       <c r="L7" s="6" t="s">
-        <v>3</v>
+        <v>69</v>
       </c>
       <c r="N7">
         <v>5</v>
       </c>
+      <c r="O7" s="6" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="8" spans="1:15" ht="14.4">
       <c r="A8" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B8" s="5"/>
       <c r="C8" s="7"/>
       <c r="D8" s="6"/>
       <c r="E8" s="6"/>
       <c r="F8" s="6" t="s">
-        <v>7</v>
+        <v>79</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>8</v>
+        <v>82</v>
       </c>
       <c r="H8" s="6" t="s">
-        <v>9</v>
+        <v>68</v>
       </c>
       <c r="I8" s="6" t="s">
-        <v>12</v>
+        <v>66</v>
       </c>
       <c r="J8" s="6" t="s">
-        <v>4</v>
+        <v>114</v>
       </c>
       <c r="K8" s="6" t="s">
-        <v>3</v>
+        <v>69</v>
       </c>
       <c r="L8" s="6" t="s">
-        <v>13</v>
+        <v>70</v>
       </c>
       <c r="N8">
         <v>6</v>
       </c>
+      <c r="O8" s="6" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="9" spans="1:15" ht="14.4">
       <c r="A9" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
       <c r="D9" s="6"/>
       <c r="E9" s="6"/>
       <c r="F9" s="6" t="s">
-        <v>59</v>
+        <v>88</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>59</v>
+        <v>87</v>
       </c>
       <c r="H9" s="6" t="s">
-        <v>60</v>
+        <v>86</v>
       </c>
       <c r="I9" s="6" t="s">
-        <v>59</v>
+        <v>85</v>
       </c>
       <c r="J9" s="6" t="s">
-        <v>60</v>
+        <v>84</v>
       </c>
       <c r="K9" s="6" t="s">
-        <v>60</v>
+        <v>83</v>
       </c>
       <c r="L9" s="6" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="N9">
         <v>7</v>
+      </c>
+      <c r="O9" s="6" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="10" spans="1:15" ht="14.4">
       <c r="A10" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B10" s="5"/>
       <c r="C10" s="6"/>
@@ -919,37 +1102,40 @@
       <c r="N10">
         <v>8</v>
       </c>
+      <c r="O10" s="6" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="11" spans="1:15" ht="14.4">
       <c r="A11" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D11" s="6" t="s">
         <v>9</v>
       </c>
       <c r="E11" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="H11" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="I11" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="J11" s="6" t="s">
         <v>21</v>
-      </c>
-      <c r="F11" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="G11" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="H11" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="I11" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="J11" s="6" t="s">
-        <v>22</v>
       </c>
       <c r="K11" s="6" t="s">
         <v>5</v>
@@ -959,6 +1145,9 @@
       </c>
       <c r="N11">
         <v>9</v>
+      </c>
+      <c r="O11" s="6" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="12" spans="1:15" ht="14.4">
@@ -966,19 +1155,19 @@
         <v>6</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C12" s="6" t="s">
         <v>9</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G12" s="6" t="s">
         <v>7</v>
@@ -990,10 +1179,10 @@
         <v>8</v>
       </c>
       <c r="J12" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K12" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L12" s="6" t="s">
         <v>3</v>
@@ -1001,10 +1190,13 @@
       <c r="N12">
         <v>10</v>
       </c>
+      <c r="O12" s="6" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="13" spans="1:15" ht="14.4">
       <c r="A13" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>7</v>
@@ -1022,36 +1214,39 @@
         <v>9</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H13" s="6" t="s">
         <v>7</v>
       </c>
       <c r="I13" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J13" s="6" t="s">
         <v>5</v>
       </c>
       <c r="K13" s="6" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="L13" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="N13">
         <v>11</v>
       </c>
+      <c r="O13" s="6" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="14" spans="1:15" ht="14.4">
       <c r="A14" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D14" s="6" t="s">
         <v>2</v>
@@ -1063,42 +1258,45 @@
         <v>8</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H14" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I14" s="6" t="s">
         <v>9</v>
       </c>
       <c r="J14" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K14" s="6" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="L14" s="6" t="s">
-        <v>25</v>
+        <v>127</v>
       </c>
       <c r="N14">
         <v>12</v>
       </c>
+      <c r="O14" s="6" t="s">
+        <v>89</v>
+      </c>
     </row>
     <row r="15" spans="1:15" ht="14.4">
       <c r="A15" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B15" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F15" s="6" t="s">
         <v>7</v>
@@ -1107,45 +1305,48 @@
         <v>3</v>
       </c>
       <c r="H15" s="6" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="I15" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J15" s="6" t="s">
         <v>9</v>
       </c>
       <c r="K15" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L15" s="6" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="N15">
         <v>13</v>
       </c>
+      <c r="O15" s="6" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="16" spans="1:15" ht="14.4">
       <c r="A16" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C16" s="6"/>
       <c r="D16" s="6"/>
       <c r="E16" s="6"/>
       <c r="F16" s="6" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G16" s="6" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="H16" s="6" t="s">
         <v>3</v>
       </c>
       <c r="I16" s="6" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="J16" s="6" t="s">
         <v>8</v>
@@ -1159,43 +1360,49 @@
       <c r="N16">
         <v>14</v>
       </c>
-    </row>
-    <row r="17" spans="1:14" ht="14.4">
+      <c r="O16" s="6" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" ht="14.4">
       <c r="A17" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B17" s="5"/>
       <c r="C17" s="6"/>
       <c r="D17" s="6"/>
       <c r="E17" s="6"/>
       <c r="F17" s="6" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G17" s="6" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="H17" s="6" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="I17" s="6" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="J17" s="6" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="K17" s="6" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="L17" s="6" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="N17">
         <v>15</v>
       </c>
-    </row>
-    <row r="18" spans="1:14" ht="14.4">
+      <c r="O17" s="6" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" ht="14.4">
       <c r="A18" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B18" s="5"/>
       <c r="C18" s="6"/>
@@ -1211,60 +1418,66 @@
       <c r="N18">
         <v>16</v>
       </c>
-    </row>
-    <row r="19" spans="1:14" ht="14.4">
+      <c r="O18" s="6" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" ht="14.4">
       <c r="A19" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F19" s="6" t="s">
         <v>8</v>
       </c>
       <c r="G19" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H19" s="6" t="s">
         <v>5</v>
       </c>
       <c r="I19" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J19" s="6" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K19" s="6" t="s">
         <v>5</v>
       </c>
       <c r="L19" s="6" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="N19">
         <v>17</v>
       </c>
-    </row>
-    <row r="20" spans="1:14" ht="14.4">
+      <c r="O19" s="6" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" ht="14.4">
       <c r="A20" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E20" s="6" t="s">
         <v>8</v>
@@ -1273,19 +1486,19 @@
         <v>7</v>
       </c>
       <c r="G20" s="6" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H20" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I20" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J20" s="6" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K20" s="6" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="L20" s="6" t="s">
         <v>7</v>
@@ -1293,40 +1506,43 @@
       <c r="N20">
         <v>18</v>
       </c>
-    </row>
-    <row r="21" spans="1:14" ht="14.4">
+      <c r="O20" s="6" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" ht="14.4">
       <c r="A21" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B21" s="5" t="s">
         <v>7</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D21" s="6" t="s">
         <v>8</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F21" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G21" s="6" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H21" s="6" t="s">
         <v>7</v>
       </c>
       <c r="I21" s="6" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="J21" s="6" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="K21" s="6" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L21" s="6" t="s">
         <v>9</v>
@@ -1334,13 +1550,16 @@
       <c r="N21">
         <v>19</v>
       </c>
-    </row>
-    <row r="22" spans="1:14" ht="14.4">
+      <c r="O21" s="6" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" ht="14.4">
       <c r="A22" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C22" s="6" t="s">
         <v>8</v>
@@ -1352,16 +1571,16 @@
         <v>7</v>
       </c>
       <c r="F22" s="6" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G22" s="6" t="s">
         <v>7</v>
       </c>
       <c r="H22" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I22" s="6" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="J22" s="6" t="s">
         <v>7</v>
@@ -1370,61 +1589,61 @@
         <v>7</v>
       </c>
       <c r="L22" s="6" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="N22">
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="1:14" ht="14.4">
+    <row r="23" spans="1:15" ht="14.4">
       <c r="A23" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B23" s="5"/>
       <c r="C23" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F23" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G23" s="6" t="s">
         <v>9</v>
       </c>
       <c r="H23" s="6" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="I23" s="6" t="s">
         <v>7</v>
       </c>
       <c r="J23" s="6" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K23" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L23" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="N23">
         <v>21</v>
       </c>
     </row>
-    <row r="24" spans="1:14" ht="14.4">
+    <row r="24" spans="1:15" ht="14.4">
       <c r="A24" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B24" s="5"/>
       <c r="C24" s="6"/>
       <c r="D24" s="6"/>
       <c r="E24" s="6"/>
       <c r="F24" s="6" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="G24" s="6" t="s">
         <v>3</v>
@@ -1433,13 +1652,13 @@
         <v>9</v>
       </c>
       <c r="I24" s="6" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="J24" s="6" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="K24" s="6" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="L24" s="6" t="s">
         <v>5</v>
@@ -1448,39 +1667,39 @@
         <v>22</v>
       </c>
     </row>
-    <row r="25" spans="1:14" ht="14.4">
+    <row r="25" spans="1:15" ht="14.4">
       <c r="A25" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B25" s="5"/>
       <c r="C25" s="6"/>
       <c r="D25" s="6"/>
       <c r="E25" s="6"/>
       <c r="G25" s="6" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="H25" s="6" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="I25" s="6" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="J25" s="6" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="K25" s="6" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="L25" s="6" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="N25">
         <v>23</v>
       </c>
     </row>
-    <row r="26" spans="1:14" ht="14.4">
+    <row r="26" spans="1:15" ht="14.4">
       <c r="A26" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B26" s="5"/>
       <c r="C26" s="6"/>
@@ -1494,7 +1713,7 @@
       <c r="K26" s="6"/>
       <c r="L26" s="6"/>
     </row>
-    <row r="27" spans="1:14" ht="14.4">
+    <row r="27" spans="1:15" ht="14.4">
       <c r="A27" s="2" t="s">
         <v>1</v>
       </c>
@@ -1508,10 +1727,10 @@
         <v>9</v>
       </c>
       <c r="E27" s="6" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F27" s="6" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G27" s="6" t="s">
         <v>9</v>
@@ -1523,30 +1742,30 @@
         <v>5</v>
       </c>
       <c r="J27" s="6" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K27" s="6" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="L27" s="6" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="28" spans="1:14" ht="14.4">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" ht="14.4">
       <c r="A28" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C28" s="6" t="s">
         <v>9</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E28" s="6" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F28" s="6" t="s">
         <v>9</v>
@@ -1564,24 +1783,24 @@
         <v>3</v>
       </c>
       <c r="K28" s="6" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="L28" s="6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="29" spans="1:14" ht="14.4">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" ht="14.4">
       <c r="A29" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B29" s="5" t="s">
         <v>7</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E29" s="6" t="s">
         <v>9</v>
@@ -1590,30 +1809,30 @@
         <v>8</v>
       </c>
       <c r="G29" s="6" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H29" s="6" t="s">
         <v>9</v>
       </c>
       <c r="I29" s="6" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="J29" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K29" s="6" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="L29" s="6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="30" spans="1:14" ht="14.4">
+    <row r="30" spans="1:15" ht="14.4">
       <c r="A30" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="C30" s="6" t="s">
         <v>2</v>
@@ -1622,16 +1841,16 @@
         <v>2</v>
       </c>
       <c r="E30" s="6" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F30" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G30" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="H30" s="6" t="s">
         <v>12</v>
-      </c>
-      <c r="G30" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="H30" s="6" t="s">
-        <v>13</v>
       </c>
       <c r="I30" s="6" t="s">
         <v>3</v>
@@ -1640,18 +1859,18 @@
         <v>9</v>
       </c>
       <c r="K30" s="6" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="L30" s="6" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="31" spans="1:14" ht="14.4">
+    <row r="31" spans="1:15" ht="14.4">
       <c r="A31" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="C31" s="6" t="s">
         <v>8</v>
@@ -1660,13 +1879,13 @@
         <v>8</v>
       </c>
       <c r="E31" s="6" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F31" s="6" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G31" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H31" s="6" t="s">
         <v>8</v>
@@ -1678,22 +1897,24 @@
         <v>4</v>
       </c>
       <c r="K31" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L31" s="6" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="32" spans="1:14" ht="14.4">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" ht="14.4">
       <c r="A32" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B32" s="5"/>
       <c r="C32" s="6"/>
       <c r="D32" s="6"/>
       <c r="E32" s="6"/>
       <c r="F32" s="6"/>
-      <c r="G32" s="6"/>
+      <c r="G32" s="6" t="s">
+        <v>58</v>
+      </c>
       <c r="H32" s="6" t="s">
         <v>3</v>
       </c>
@@ -1701,46 +1922,43 @@
         <v>4</v>
       </c>
       <c r="J32" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K32" s="6" t="s">
         <v>9</v>
       </c>
       <c r="L32" s="6" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="33" spans="1:12" ht="14.4">
       <c r="A33" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B33" s="5"/>
       <c r="C33" s="6"/>
       <c r="D33" s="6"/>
       <c r="E33" s="6"/>
       <c r="F33" s="6"/>
-      <c r="G33" s="6" t="s">
-        <v>63</v>
-      </c>
       <c r="H33" s="6" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="I33" s="6" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="J33" s="6" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="K33" s="6" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="L33" s="6" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
     </row>
     <row r="34" spans="1:12" ht="14.4">
       <c r="A34" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B34" s="5"/>
       <c r="C34" s="6"/>
@@ -1759,37 +1977,37 @@
         <v>1</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D35" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E35" s="6" t="s">
         <v>2</v>
       </c>
       <c r="F35" s="6" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G35" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H35" s="6" t="s">
         <v>8</v>
       </c>
       <c r="I35" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J35" s="6" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="K35" s="6" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="L35" s="6" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="36" spans="1:12" ht="14.4">
@@ -1797,72 +2015,72 @@
         <v>6</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D36" s="6" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E36" s="6" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F36" s="6" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G36" s="6" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H36" s="6" t="s">
         <v>7</v>
       </c>
       <c r="I36" s="6" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="J36" s="6" t="s">
         <v>7</v>
       </c>
       <c r="K36" s="6" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="L36" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="37" spans="1:12" ht="14.4">
       <c r="A37" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C37" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D37" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E37" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F37" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="G37" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="H37" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="I37" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B37" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C37" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="D37" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="E37" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="F37" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="G37" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="H37" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="I37" s="6" t="s">
-        <v>12</v>
-      </c>
       <c r="J37" s="6" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="K37" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L37" s="6" t="s">
         <v>9</v>
@@ -1870,19 +2088,19 @@
     </row>
     <row r="38" spans="1:12" ht="14.4">
       <c r="A38" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B38" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C38" s="6" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D38" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E38" s="6" t="s">
         <v>15</v>
-      </c>
-      <c r="E38" s="6" t="s">
-        <v>16</v>
       </c>
       <c r="F38" s="6" t="s">
         <v>7</v>
@@ -1891,16 +2109,16 @@
         <v>8</v>
       </c>
       <c r="H38" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I38" s="6" t="s">
         <v>9</v>
       </c>
       <c r="J38" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K38" s="6" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="L38" s="6" t="s">
         <v>7</v>
@@ -1908,37 +2126,37 @@
     </row>
     <row r="39" spans="1:12" ht="14.4">
       <c r="A39" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B39" s="8"/>
       <c r="C39" s="6"/>
       <c r="D39" s="6"/>
       <c r="E39" s="6"/>
       <c r="F39" s="6" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G39" s="6" t="s">
         <v>9</v>
       </c>
       <c r="H39" s="6" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="I39" s="6" t="s">
         <v>4</v>
       </c>
       <c r="J39" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K39" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L39" s="6" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="40" spans="1:12" ht="13.8">
       <c r="A40" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B40" s="9"/>
       <c r="C40" s="6"/>
@@ -1947,24 +2165,24 @@
       <c r="F40" s="6"/>
       <c r="G40" s="6"/>
       <c r="H40" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I40" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J40" s="6" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K40" s="6" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="L40" s="6" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="41" spans="1:12" ht="13.8">
       <c r="A41" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B41" s="9"/>
       <c r="C41" s="6"/>
@@ -1980,7 +2198,7 @@
     </row>
     <row r="42" spans="1:12">
       <c r="A42" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B42" s="6"/>
       <c r="C42" s="6"/>
@@ -1998,30 +2216,32 @@
       <c r="A43" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B43" s="6"/>
+      <c r="B43" s="6" t="s">
+        <v>44</v>
+      </c>
       <c r="C43" s="6" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D43" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="E43" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F43" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G43" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="E43" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="F43" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="G43" s="6" t="s">
-        <v>47</v>
-      </c>
       <c r="H43" s="6" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="I43" s="6" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="J43" s="6" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="K43" s="6" t="s">
         <v>8</v>
@@ -2034,7 +2254,9 @@
       <c r="A44" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B44" s="6"/>
+      <c r="B44" s="6" t="s">
+        <v>14</v>
+      </c>
       <c r="C44" s="6" t="s">
         <v>8</v>
       </c>
@@ -2042,16 +2264,16 @@
         <v>7</v>
       </c>
       <c r="E44" s="6" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F44" s="6" t="s">
         <v>7</v>
       </c>
       <c r="G44" s="6" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="H44" s="6" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="I44" s="6" t="s">
         <v>5</v>
@@ -2060,17 +2282,19 @@
         <v>5</v>
       </c>
       <c r="K44" s="6" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L44" s="6" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="45" spans="1:12">
       <c r="A45" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B45" s="6"/>
+        <v>10</v>
+      </c>
+      <c r="B45" s="6" t="s">
+        <v>7</v>
+      </c>
       <c r="C45" s="6" t="s">
         <v>7</v>
       </c>
@@ -2078,43 +2302,45 @@
         <v>8</v>
       </c>
       <c r="E45" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F45" s="6" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G45" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H45" s="6" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="I45" s="6" t="s">
         <v>3</v>
       </c>
       <c r="J45" s="6" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K45" s="6" t="s">
         <v>7</v>
       </c>
       <c r="L45" s="6" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
     </row>
     <row r="46" spans="1:12">
       <c r="A46" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B46" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="C46" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B46" s="6"/>
-      <c r="C46" s="6" t="s">
-        <v>15</v>
-      </c>
       <c r="D46" s="6" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E46" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F46" s="6" t="s">
         <v>3</v>
@@ -2123,46 +2349,45 @@
         <v>7</v>
       </c>
       <c r="H46" s="6" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="I46" s="6" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="J46" s="6" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="K46" s="6" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="L46" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="47" spans="1:12">
       <c r="A47" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B47" s="6"/>
+        <v>16</v>
+      </c>
       <c r="C47" s="6" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="D47" s="6" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="E47" s="6" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="F47" s="6" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G47" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H47" s="6" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="I47" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J47" s="6" t="s">
         <v>8</v>
@@ -2171,12 +2396,12 @@
         <v>3</v>
       </c>
       <c r="L47" s="6" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="48" spans="1:12">
       <c r="A48" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B48" s="6"/>
       <c r="C48" s="6"/>
@@ -2189,18 +2414,18 @@
         <v>8</v>
       </c>
       <c r="J48" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K48" s="6" t="s">
         <v>5</v>
       </c>
       <c r="L48" s="6" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
     </row>
     <row r="49" spans="1:1">
       <c r="A49" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
